--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="460" windowWidth="11820" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="19540" yWindow="460" windowWidth="11820" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>piwa</t>
   </si>
@@ -225,29 +225,169 @@
     <t>wi</t>
   </si>
   <si>
-    <t>yi</t>
-  </si>
-  <si>
     <t>phono</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>target_ortho</t>
+  </si>
+  <si>
+    <t>ṭpæ͂</t>
+  </si>
+  <si>
+    <t>ṭpæ</t>
+  </si>
+  <si>
+    <t>ṭpɑ</t>
+  </si>
+  <si>
+    <t>ṭpə</t>
+  </si>
+  <si>
+    <t>ṭpi</t>
+  </si>
+  <si>
+    <t>ṭpu</t>
+  </si>
+  <si>
+    <t>lβʲə</t>
+  </si>
+  <si>
+    <t>lβʲæ</t>
+  </si>
+  <si>
+    <t>lβʲi</t>
+  </si>
+  <si>
+    <t>mitujɛ</t>
+  </si>
+  <si>
+    <t>ṭpe:</t>
+  </si>
+  <si>
+    <t>ɣɑ:</t>
+  </si>
+  <si>
+    <t>ɣu:</t>
+  </si>
+  <si>
+    <t>kpɑ͂:</t>
+  </si>
+  <si>
+    <t>piwæ</t>
+  </si>
+  <si>
+    <t>tpa</t>
+  </si>
+  <si>
+    <t>tpæ͂</t>
+  </si>
+  <si>
+    <t>tpɑ</t>
+  </si>
+  <si>
+    <t>tpə</t>
+  </si>
+  <si>
+    <t>tumowɛ</t>
+  </si>
+  <si>
+    <t>tupæ͂</t>
+  </si>
+  <si>
+    <t>wɯ</t>
+  </si>
+  <si>
+    <t>tɔwi</t>
+  </si>
+  <si>
+    <t>wumipɔ</t>
+  </si>
+  <si>
+    <t>kipɔ</t>
+  </si>
+  <si>
+    <t>ṇædɛmɔ</t>
+  </si>
+  <si>
+    <t>ṇæjɛki</t>
+  </si>
+  <si>
+    <t>ṇɔki</t>
+  </si>
+  <si>
+    <t>ṇɔmi</t>
+  </si>
+  <si>
+    <t>ṇɔmiwækɛ</t>
+  </si>
+  <si>
+    <t>ṇɔpimædɛ</t>
+  </si>
+  <si>
+    <t>ṇujɛdi</t>
+  </si>
+  <si>
+    <t>pɔṇi</t>
+  </si>
+  <si>
+    <t>tiwuṇɛ</t>
+  </si>
+  <si>
+    <t>wædikɛṇɔ</t>
+  </si>
+  <si>
+    <t>ṭimɔpɛ</t>
+  </si>
+  <si>
+    <t>ṭipɔṇætɛ</t>
+  </si>
+  <si>
+    <t>ṭijɛtɔ</t>
+  </si>
+  <si>
+    <t>mɛjæṭi</t>
+  </si>
+  <si>
+    <t>tɔṭiwumæ</t>
+  </si>
+  <si>
+    <t>wiṭɔṇɛ</t>
+  </si>
+  <si>
+    <t>kæmɔ</t>
+  </si>
+  <si>
+    <t>kæṇi</t>
+  </si>
+  <si>
+    <t>pɛdumi</t>
+  </si>
+  <si>
+    <t>tə͂ː</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,8 +410,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,29 +691,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -582,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -596,10 +738,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,10 +752,11 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -627,7 +770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -638,10 +781,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -652,10 +795,10 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -666,10 +809,10 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -680,10 +823,10 @@
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -694,10 +837,10 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -708,10 +851,10 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -721,11 +864,11 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -735,11 +878,11 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -750,10 +893,10 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -764,10 +907,10 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -778,10 +921,10 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -791,11 +934,11 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -805,11 +948,11 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -819,11 +962,11 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -833,11 +976,11 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -847,8 +990,8 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>67</v>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -876,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,7 +1061,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -932,7 +1075,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -946,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -960,7 +1103,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -988,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1002,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1016,10 +1159,10 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1029,8 +1172,8 @@
       <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
+      <c r="D34" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1044,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,10 +1240,10 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1111,10 +1254,10 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,10 +1282,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1153,13 +1296,13 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1167,10 +1310,10 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1181,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1195,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="460" windowWidth="11820" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="7100" yWindow="460" windowWidth="20220" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="152">
   <si>
     <t>piwa</t>
   </si>
@@ -288,12 +288,6 @@
     <t>tpə</t>
   </si>
   <si>
-    <t>tumowɛ</t>
-  </si>
-  <si>
-    <t>tupæ͂</t>
-  </si>
-  <si>
     <t>wɯ</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>tiwuṇɛ</t>
   </si>
   <si>
-    <t>wædikɛṇɔ</t>
-  </si>
-  <si>
     <t>ṭimɔpɛ</t>
   </si>
   <si>
@@ -364,13 +355,142 @@
   </si>
   <si>
     <t>tə͂ː</t>
+  </si>
+  <si>
+    <t>phono1</t>
+  </si>
+  <si>
+    <t>phono2</t>
+  </si>
+  <si>
+    <t>phono3</t>
+  </si>
+  <si>
+    <t>phono4</t>
+  </si>
+  <si>
+    <t>phono5</t>
+  </si>
+  <si>
+    <t>phono6</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>̣i</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ɔ</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ɛ</t>
+  </si>
+  <si>
+    <t>phono7</t>
+  </si>
+  <si>
+    <t>phono8</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ṭ</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>̣æ</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>æ͂</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>ṭp</t>
+  </si>
+  <si>
+    <t>ɑ</t>
+  </si>
+  <si>
+    <t>ə</t>
+  </si>
+  <si>
+    <t>e:</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>ɣ</t>
+  </si>
+  <si>
+    <t>ɑ:</t>
+  </si>
+  <si>
+    <t>u:</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ṇ</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>ɑ͂:</t>
+  </si>
+  <si>
+    <t>lβʲ</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ə͂ː</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>tumɔwɛ</t>
+  </si>
+  <si>
+    <t>tupæ</t>
+  </si>
+  <si>
+    <t>wæṭikɛṇɔ</t>
+  </si>
+  <si>
+    <t>ɯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,12 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -413,7 +527,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,15 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="227" zoomScaleNormal="227" zoomScalePageLayoutView="227" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -712,8 +826,32 @@
       <c r="D1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -724,10 +862,34 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -738,10 +900,34 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -752,11 +938,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -769,8 +978,32 @@
       <c r="D5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -783,8 +1016,32 @@
       <c r="D6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -797,8 +1054,32 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -811,8 +1092,32 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -825,8 +1130,32 @@
       <c r="D9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -839,8 +1168,32 @@
       <c r="D10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -853,8 +1206,32 @@
       <c r="D11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -867,8 +1244,32 @@
       <c r="D12" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -881,8 +1282,32 @@
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -893,10 +1318,34 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -907,10 +1356,34 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -921,10 +1394,34 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -937,8 +1434,32 @@
       <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -951,8 +1472,32 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -965,8 +1510,32 @@
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -979,8 +1548,32 @@
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -993,8 +1586,32 @@
       <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1005,10 +1622,34 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1021,8 +1662,32 @@
       <c r="D23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1033,10 +1698,34 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1047,10 +1736,34 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1061,10 +1774,34 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1075,10 +1812,34 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1089,10 +1850,34 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1103,10 +1888,34 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1117,10 +1926,34 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1131,10 +1964,34 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1147,8 +2004,32 @@
       <c r="D32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1159,10 +2040,34 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1173,10 +2078,34 @@
         <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1187,10 +2116,34 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1201,10 +2154,34 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1215,10 +2192,34 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1231,8 +2232,32 @@
       <c r="D38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1245,8 +2270,32 @@
       <c r="D39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1259,8 +2308,32 @@
       <c r="D40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1271,10 +2344,34 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1285,10 +2382,34 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1299,10 +2420,34 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1313,10 +2458,34 @@
         <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1327,10 +2496,34 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" t="s">
+        <v>123</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1341,7 +2534,31 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="460" windowWidth="20220" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="2840" yWindow="2000" windowWidth="22760" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="151">
   <si>
     <t>piwa</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>̣æ</t>
@@ -807,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="227" zoomScaleNormal="227" zoomScalePageLayoutView="227" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45:L46"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,10 +912,10 @@
         <v>118</v>
       </c>
       <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" t="s">
         <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
       </c>
       <c r="K3" t="s">
         <v>115</v>
@@ -947,7 +944,7 @@
         <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
         <v>120</v>
@@ -979,10 +976,10 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
         <v>123</v>
@@ -1017,10 +1014,10 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>123</v>
@@ -1055,10 +1052,10 @@
         <v>69</v>
       </c>
       <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
         <v>131</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
       </c>
       <c r="G7" t="s">
         <v>123</v>
@@ -1093,10 +1090,10 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
@@ -1131,10 +1128,10 @@
         <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -1169,7 +1166,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>125</v>
@@ -1207,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
         <v>123</v>
@@ -1245,10 +1242,10 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
         <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>123</v>
@@ -1283,10 +1280,10 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>123</v>
@@ -1321,10 +1318,10 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -1359,13 +1356,13 @@
         <v>106</v>
       </c>
       <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
         <v>139</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
       </c>
       <c r="H15" t="s">
         <v>125</v>
@@ -1397,7 +1394,7 @@
         <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
         <v>125</v>
@@ -1435,10 +1432,10 @@
         <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
         <v>141</v>
-      </c>
-      <c r="F17" t="s">
-        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>123</v>
@@ -1473,10 +1470,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
         <v>123</v>
@@ -1511,10 +1508,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
         <v>123</v>
@@ -1549,10 +1546,10 @@
         <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>123</v>
@@ -1587,7 +1584,7 @@
         <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
         <v>125</v>
@@ -1631,10 +1628,10 @@
         <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I22" t="s">
         <v>124</v>
@@ -1672,10 +1669,10 @@
         <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
         <v>120</v>
@@ -1701,13 +1698,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
         <v>120</v>
@@ -1739,19 +1736,19 @@
         <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
         <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>125</v>
@@ -1777,13 +1774,13 @@
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
         <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
         <v>125</v>
@@ -1815,7 +1812,7 @@
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -1853,7 +1850,7 @@
         <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>118</v>
@@ -1865,13 +1862,13 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s">
         <v>120</v>
@@ -1891,7 +1888,7 @@
         <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
         <v>118</v>
@@ -1906,10 +1903,10 @@
         <v>117</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
         <v>120</v>
@@ -1929,19 +1926,19 @@
         <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
         <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
         <v>125</v>
@@ -1973,10 +1970,10 @@
         <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
         <v>117</v>
@@ -2011,10 +2008,10 @@
         <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>123</v>
@@ -2049,7 +2046,7 @@
         <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
         <v>125</v>
@@ -2084,7 +2081,7 @@
         <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
         <v>123</v>
@@ -2125,13 +2122,13 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" t="s">
         <v>120</v>
@@ -2169,16 +2166,16 @@
         <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s">
         <v>117</v>
       </c>
       <c r="L36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2201,7 +2198,7 @@
         <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
         <v>125</v>
@@ -2233,10 +2230,10 @@
         <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
         <v>123</v>
@@ -2271,10 +2268,10 @@
         <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
         <v>123</v>
@@ -2309,10 +2306,10 @@
         <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -2344,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
         <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -2359,7 +2356,7 @@
         <v>118</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
         <v>120</v>
@@ -2382,19 +2379,19 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
         <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
         <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" t="s">
         <v>123</v>
@@ -2420,13 +2417,13 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
         <v>124</v>
@@ -2435,13 +2432,13 @@
         <v>125</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J43" t="s">
         <v>120</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s">
         <v>118</v>
@@ -2461,10 +2458,10 @@
         <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
         <v>123</v>
@@ -2499,7 +2496,7 @@
         <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
         <v>125</v>
@@ -2511,7 +2508,7 @@
         <v>118</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J45" t="s">
         <v>120</v>
@@ -2537,10 +2534,10 @@
         <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acristia/Documents/gitrepos/nwryd19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrinacristia/gitrepos/nwryd19/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2000" windowWidth="22760" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="460" windowWidth="35860" windowHeight="21040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="212">
   <si>
     <t>piwa</t>
   </si>
@@ -81,12 +81,6 @@
     <t>diponate</t>
   </si>
   <si>
-    <t xml:space="preserve">wî </t>
-  </si>
-  <si>
-    <t xml:space="preserve">poni </t>
-  </si>
-  <si>
     <t>nopimade</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>target_ortho</t>
   </si>
   <si>
-    <t>ṭpæ͂</t>
-  </si>
-  <si>
     <t>ṭpæ</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>ṭpu</t>
   </si>
   <si>
-    <t>lβʲə</t>
-  </si>
-  <si>
     <t>lβʲæ</t>
   </si>
   <si>
@@ -261,27 +249,12 @@
     <t>mitujɛ</t>
   </si>
   <si>
-    <t>ṭpe:</t>
-  </si>
-  <si>
-    <t>ɣɑ:</t>
-  </si>
-  <si>
-    <t>ɣu:</t>
-  </si>
-  <si>
-    <t>kpɑ͂:</t>
-  </si>
-  <si>
     <t>piwæ</t>
   </si>
   <si>
     <t>tpa</t>
   </si>
   <si>
-    <t>tpæ͂</t>
-  </si>
-  <si>
     <t>tpɑ</t>
   </si>
   <si>
@@ -300,39 +273,9 @@
     <t>kipɔ</t>
   </si>
   <si>
-    <t>ṇædɛmɔ</t>
-  </si>
-  <si>
-    <t>ṇæjɛki</t>
-  </si>
-  <si>
-    <t>ṇɔki</t>
-  </si>
-  <si>
-    <t>ṇɔmi</t>
-  </si>
-  <si>
-    <t>ṇɔmiwækɛ</t>
-  </si>
-  <si>
-    <t>ṇɔpimædɛ</t>
-  </si>
-  <si>
-    <t>ṇujɛdi</t>
-  </si>
-  <si>
-    <t>pɔṇi</t>
-  </si>
-  <si>
-    <t>tiwuṇɛ</t>
-  </si>
-  <si>
     <t>ṭimɔpɛ</t>
   </si>
   <si>
-    <t>ṭipɔṇætɛ</t>
-  </si>
-  <si>
     <t>ṭijɛtɔ</t>
   </si>
   <si>
@@ -342,132 +285,39 @@
     <t>tɔṭiwumæ</t>
   </si>
   <si>
-    <t>wiṭɔṇɛ</t>
-  </si>
-  <si>
     <t>kæmɔ</t>
   </si>
   <si>
-    <t>kæṇi</t>
-  </si>
-  <si>
-    <t>pɛdumi</t>
-  </si>
-  <si>
-    <t>tə͂ː</t>
-  </si>
-  <si>
-    <t>phono1</t>
-  </si>
-  <si>
-    <t>phono2</t>
-  </si>
-  <si>
-    <t>phono3</t>
-  </si>
-  <si>
-    <t>phono4</t>
-  </si>
-  <si>
-    <t>phono5</t>
-  </si>
-  <si>
-    <t>phono6</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>̣i</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>ɔ</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>ɛ</t>
-  </si>
-  <si>
-    <t>phono7</t>
-  </si>
-  <si>
-    <t>phono8</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>ṭ</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>̣æ</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>æ͂</t>
-  </si>
-  <si>
-    <t>æ</t>
-  </si>
-  <si>
-    <t>ṭp</t>
-  </si>
-  <si>
-    <t>ɑ</t>
-  </si>
-  <si>
-    <t>ə</t>
-  </si>
-  <si>
-    <t>e:</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
-    <t>ɣ</t>
-  </si>
-  <si>
-    <t>ɑ:</t>
-  </si>
-  <si>
-    <t>u:</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>ṇ</t>
-  </si>
-  <si>
     <t>kp</t>
   </si>
   <si>
-    <t>ɑ͂:</t>
-  </si>
-  <si>
-    <t>lβʲ</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>ə͂ː</t>
-  </si>
-  <si>
     <t>tp</t>
   </si>
   <si>
@@ -477,10 +327,343 @@
     <t>tupæ</t>
   </si>
   <si>
-    <t>wæṭikɛṇɔ</t>
-  </si>
-  <si>
-    <t>ɯ</t>
+    <t>[,1]</t>
+  </si>
+  <si>
+    <t>[,2]</t>
+  </si>
+  <si>
+    <t>[,3]</t>
+  </si>
+  <si>
+    <t>[,4]</t>
+  </si>
+  <si>
+    <t>[,5]</t>
+  </si>
+  <si>
+    <t>[,6]</t>
+  </si>
+  <si>
+    <t>[,7]</t>
+  </si>
+  <si>
+    <t>[,8]</t>
+  </si>
+  <si>
+    <t>[1,]</t>
+  </si>
+  <si>
+    <t>[2,]</t>
+  </si>
+  <si>
+    <t>[3,]</t>
+  </si>
+  <si>
+    <t>[4,]</t>
+  </si>
+  <si>
+    <t>[5,]</t>
+  </si>
+  <si>
+    <t>[6,]</t>
+  </si>
+  <si>
+    <t>[7,]</t>
+  </si>
+  <si>
+    <t>[8,]</t>
+  </si>
+  <si>
+    <t>[9,]</t>
+  </si>
+  <si>
+    <t>[10,]</t>
+  </si>
+  <si>
+    <t>[11,]</t>
+  </si>
+  <si>
+    <t>[12,]</t>
+  </si>
+  <si>
+    <t>[13,]</t>
+  </si>
+  <si>
+    <t>[14,]</t>
+  </si>
+  <si>
+    <t>[15,]</t>
+  </si>
+  <si>
+    <t>[16,]</t>
+  </si>
+  <si>
+    <t>[17,]</t>
+  </si>
+  <si>
+    <t>[18,]</t>
+  </si>
+  <si>
+    <t>[19,]</t>
+  </si>
+  <si>
+    <t>[20,]</t>
+  </si>
+  <si>
+    <t>[21,]</t>
+  </si>
+  <si>
+    <t>[22,]</t>
+  </si>
+  <si>
+    <t>[23,]</t>
+  </si>
+  <si>
+    <t>[24,]</t>
+  </si>
+  <si>
+    <t>[25,]</t>
+  </si>
+  <si>
+    <t>[26,]</t>
+  </si>
+  <si>
+    <t>[27,]</t>
+  </si>
+  <si>
+    <t>[28,]</t>
+  </si>
+  <si>
+    <t>[29,]</t>
+  </si>
+  <si>
+    <t>[30,]</t>
+  </si>
+  <si>
+    <t>[31,]</t>
+  </si>
+  <si>
+    <t>[32,]</t>
+  </si>
+  <si>
+    <t>[33,]</t>
+  </si>
+  <si>
+    <t>[34,]</t>
+  </si>
+  <si>
+    <t>[35,]</t>
+  </si>
+  <si>
+    <t>[36,]</t>
+  </si>
+  <si>
+    <t>[37,]</t>
+  </si>
+  <si>
+    <t>[38,]</t>
+  </si>
+  <si>
+    <t>[39,]</t>
+  </si>
+  <si>
+    <t>[40,]</t>
+  </si>
+  <si>
+    <t>[41,]</t>
+  </si>
+  <si>
+    <t>[42,]</t>
+  </si>
+  <si>
+    <t>[43,]</t>
+  </si>
+  <si>
+    <t>[44,]</t>
+  </si>
+  <si>
+    <t>[45,]</t>
+  </si>
+  <si>
+    <t>dipońate</t>
+  </si>
+  <si>
+    <t>ṭipɔnætɛ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ṭp̃æ</t>
+  </si>
+  <si>
+    <t>ṭpeː</t>
+  </si>
+  <si>
+    <t>ɣ̃ɑː</t>
+  </si>
+  <si>
+    <t>ɣuː</t>
+  </si>
+  <si>
+    <t>kańi</t>
+  </si>
+  <si>
+    <t>kæni</t>
+  </si>
+  <si>
+    <t>kp̃ɑː</t>
+  </si>
+  <si>
+    <t>lβʲ̃ə</t>
+  </si>
+  <si>
+    <t>ńademo</t>
+  </si>
+  <si>
+    <t>næṭɛmɔ</t>
+  </si>
+  <si>
+    <t>ńayeki</t>
+  </si>
+  <si>
+    <t>næjɛki</t>
+  </si>
+  <si>
+    <t>ńoki</t>
+  </si>
+  <si>
+    <t>nɔki</t>
+  </si>
+  <si>
+    <t>ńomi</t>
+  </si>
+  <si>
+    <t>nɔmi</t>
+  </si>
+  <si>
+    <t>ńomiwake</t>
+  </si>
+  <si>
+    <t>nɔmiwækɛ</t>
+  </si>
+  <si>
+    <t>nɔpimæṭɛ</t>
+  </si>
+  <si>
+    <t>ńuyedi</t>
+  </si>
+  <si>
+    <t>nujɛṭi</t>
+  </si>
+  <si>
+    <t>pɛṭumi</t>
+  </si>
+  <si>
+    <t>pɔni</t>
+  </si>
+  <si>
+    <t>t̃əː</t>
+  </si>
+  <si>
+    <t>tiwuńe</t>
+  </si>
+  <si>
+    <t>tiwunɛ</t>
+  </si>
+  <si>
+    <t>tp̃æ</t>
+  </si>
+  <si>
+    <t>wadikeńo</t>
+  </si>
+  <si>
+    <t>wæṭikɛnɔ</t>
+  </si>
+  <si>
+    <t>wî</t>
+  </si>
+  <si>
+    <t>widońe</t>
+  </si>
+  <si>
+    <t>wiṭɔnɛ</t>
+  </si>
+  <si>
+    <t>ortho1</t>
+  </si>
+  <si>
+    <t>ortho2</t>
+  </si>
+  <si>
+    <t>ortho3</t>
+  </si>
+  <si>
+    <t>ortho4</t>
+  </si>
+  <si>
+    <t>ortho5</t>
+  </si>
+  <si>
+    <t>ortho6</t>
+  </si>
+  <si>
+    <t>ortho7</t>
+  </si>
+  <si>
+    <t>ortho8</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ń</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>:a</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>éé</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>:ââ</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>:ê</t>
+  </si>
+  <si>
+    <t>:êê</t>
+  </si>
+  <si>
+    <t>î</t>
   </si>
 </sst>
 </file>
@@ -521,10 +704,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,53 +984,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="L24" zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="22" width="5.5" customWidth="1"/>
+    <col min="23" max="30" width="5.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>194</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" ref="W1:W11" si="0">IF(AND(O1="NA",F1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" ref="X1:X11" si="1">IF(AND(P1="NA",G1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" ref="Y1:Y11" si="2">IF(AND(Q1="NA",H1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" ref="Z1:Z11" si="3">IF(AND(R1="NA",I1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" ref="AA1:AA11" si="4">IF(AND(S1="NA",J1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AB1" t="str">
+        <f t="shared" ref="AB1:AB11" si="5">IF(AND(T1="NA",K1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AC1" t="str">
+        <f t="shared" ref="AC1:AC11" si="6">IF(AND(U1="NA",L1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AD1" t="str">
+        <f t="shared" ref="AD1:AD11" si="7">IF(AND(V1="NA",M1&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AE1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -859,72 +1126,244 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>92</v>
+      </c>
+      <c r="P2">
+        <v>96</v>
+      </c>
+      <c r="Q2">
+        <v>35</v>
+      </c>
+      <c r="R2">
+        <v>86</v>
+      </c>
+      <c r="S2">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2">
+        <v>23</v>
+      </c>
+      <c r="AG2">
+        <v>92</v>
+      </c>
+      <c r="AH2">
+        <v>96</v>
+      </c>
+      <c r="AI2">
+        <v>35</v>
+      </c>
+      <c r="AJ2">
+        <v>86</v>
+      </c>
+      <c r="AK2">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>196</v>
+      </c>
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>92</v>
+      </c>
+      <c r="P3">
+        <v>86</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>78</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>68</v>
+      </c>
+      <c r="U3">
+        <v>37</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3">
+        <v>23</v>
+      </c>
+      <c r="AG3">
+        <v>92</v>
+      </c>
+      <c r="AH3">
+        <v>86</v>
+      </c>
+      <c r="AI3">
+        <v>35</v>
+      </c>
+      <c r="AJ3">
+        <v>78</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>68</v>
+      </c>
+      <c r="AM3">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -935,680 +1374,2228 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>90</v>
+      </c>
+      <c r="Q4">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>68</v>
+      </c>
+      <c r="S4">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4">
+        <v>23</v>
+      </c>
+      <c r="AG4">
+        <v>92</v>
+      </c>
+      <c r="AH4">
+        <v>90</v>
+      </c>
+      <c r="AI4">
+        <v>37</v>
+      </c>
+      <c r="AJ4">
+        <v>68</v>
+      </c>
+      <c r="AK4">
+        <v>35</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>7</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>22</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>92</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" ref="W3:W46" si="8">IF(AND(O12="NA",F12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" ref="X3:X46" si="9">IF(AND(P12="NA",G12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" ref="Y3:Y46" si="10">IF(AND(Q12="NA",H12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" ref="Z3:Z46" si="11">IF(AND(R12="NA",I12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" ref="AA3:AA46" si="12">IF(AND(S12="NA",J12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" ref="AB3:AB46" si="13">IF(AND(T12="NA",K12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" ref="AC3:AC46" si="14">IF(AND(U12="NA",L12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" ref="AD3:AD46" si="15">IF(AND(V12="NA",M12&lt;&gt;"NA"),"SEE","")</f>
+        <v/>
+      </c>
+      <c r="AE12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF12">
+        <v>14</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" t="s">
+        <v>89</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13">
+        <v>14</v>
+      </c>
+      <c r="AG13">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14">
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>96</v>
+      </c>
+      <c r="Q14">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF14">
+        <v>90</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>96</v>
+      </c>
+      <c r="AI14">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>78</v>
+      </c>
+      <c r="Q15">
+        <v>92</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15">
+        <v>90</v>
+      </c>
+      <c r="AG15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>78</v>
+      </c>
+      <c r="AI15">
+        <v>92</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16">
+        <v>90</v>
+      </c>
+      <c r="O16">
+        <v>92</v>
+      </c>
+      <c r="P16">
+        <v>86</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16">
+        <v>90</v>
+      </c>
+      <c r="AG16">
+        <v>92</v>
+      </c>
+      <c r="AH16">
+        <v>86</v>
+      </c>
+      <c r="AI16">
+        <v>35</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF17">
+        <v>12</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" t="s">
+        <v>89</v>
+      </c>
+      <c r="U18" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE18" t="s">
         <v>123</v>
       </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" t="s">
-        <v>123</v>
+      <c r="AF18">
+        <v>12</v>
+      </c>
+      <c r="AG18">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" t="s">
+        <v>89</v>
+      </c>
+      <c r="S20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>7</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
+      <c r="S21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" t="s">
+        <v>89</v>
+      </c>
+      <c r="U21" t="s">
+        <v>89</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>92</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1619,338 +3606,1112 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
         <v>127</v>
       </c>
-      <c r="H22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" t="s">
-        <v>123</v>
-      </c>
-      <c r="L22" t="s">
-        <v>123</v>
+      <c r="N22">
+        <v>96</v>
+      </c>
+      <c r="O22">
+        <v>37</v>
+      </c>
+      <c r="P22">
+        <v>90</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>23</v>
+      </c>
+      <c r="S22">
+        <v>92</v>
+      </c>
+      <c r="T22" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF22">
+        <v>96</v>
+      </c>
+      <c r="AG22">
+        <v>37</v>
+      </c>
+      <c r="AH22">
+        <v>90</v>
+      </c>
+      <c r="AI22">
+        <v>7</v>
+      </c>
+      <c r="AJ22">
+        <v>23</v>
+      </c>
+      <c r="AK22">
+        <v>92</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23">
+        <v>96</v>
+      </c>
+      <c r="O23">
+        <v>92</v>
+      </c>
+      <c r="P23">
+        <v>68</v>
+      </c>
+      <c r="Q23">
+        <v>88</v>
+      </c>
+      <c r="R23">
+        <v>90</v>
+      </c>
+      <c r="S23">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" t="s">
+        <v>89</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF23">
+        <v>96</v>
+      </c>
+      <c r="AG23">
+        <v>92</v>
+      </c>
+      <c r="AH23">
+        <v>68</v>
+      </c>
+      <c r="AI23">
+        <v>88</v>
+      </c>
+      <c r="AJ23">
+        <v>90</v>
+      </c>
+      <c r="AK23">
+        <v>37</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" t="s">
         <v>129</v>
       </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" t="s">
-        <v>123</v>
+      <c r="N24">
+        <v>78</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>37</v>
+      </c>
+      <c r="R24">
+        <v>96</v>
+      </c>
+      <c r="S24">
+        <v>35</v>
+      </c>
+      <c r="T24" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" t="s">
+        <v>89</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF24">
+        <v>78</v>
+      </c>
+      <c r="AG24">
+        <v>7</v>
+      </c>
+      <c r="AH24">
+        <v>23</v>
+      </c>
+      <c r="AI24">
+        <v>37</v>
+      </c>
+      <c r="AJ24">
+        <v>96</v>
+      </c>
+      <c r="AK24">
+        <v>35</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25">
+        <v>78</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>90</v>
+      </c>
+      <c r="Q25">
+        <v>37</v>
+      </c>
+      <c r="R25">
+        <v>90</v>
+      </c>
+      <c r="S25">
+        <v>92</v>
+      </c>
+      <c r="T25" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" t="s">
+        <v>89</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF25">
+        <v>78</v>
+      </c>
+      <c r="AG25">
+        <v>7</v>
+      </c>
+      <c r="AH25">
+        <v>90</v>
+      </c>
+      <c r="AI25">
+        <v>37</v>
+      </c>
+      <c r="AJ25">
+        <v>90</v>
+      </c>
+      <c r="AK25">
+        <v>92</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" t="s">
-        <v>138</v>
-      </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26">
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>90</v>
+      </c>
+      <c r="Q26">
+        <v>92</v>
+      </c>
+      <c r="R26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" t="s">
+        <v>89</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF26">
+        <v>78</v>
+      </c>
+      <c r="AG26">
+        <v>35</v>
+      </c>
+      <c r="AH26">
+        <v>90</v>
+      </c>
+      <c r="AI26">
+        <v>92</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27">
+        <v>78</v>
+      </c>
+      <c r="O27">
+        <v>35</v>
+      </c>
+      <c r="P27">
+        <v>96</v>
+      </c>
+      <c r="Q27">
+        <v>92</v>
+      </c>
+      <c r="R27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U27" t="s">
+        <v>89</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF27">
+        <v>78</v>
+      </c>
+      <c r="AG27">
+        <v>35</v>
+      </c>
+      <c r="AH27">
+        <v>96</v>
+      </c>
+      <c r="AI27">
+        <v>92</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" t="s">
+        <v>133</v>
+      </c>
+      <c r="N28">
+        <v>78</v>
+      </c>
+      <c r="O28">
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>96</v>
+      </c>
+      <c r="Q28">
+        <v>92</v>
+      </c>
+      <c r="R28">
+        <v>82</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>90</v>
+      </c>
+      <c r="U28">
+        <v>37</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF28">
+        <v>78</v>
+      </c>
+      <c r="AG28">
+        <v>35</v>
+      </c>
+      <c r="AH28">
+        <v>96</v>
+      </c>
+      <c r="AI28">
+        <v>92</v>
+      </c>
+      <c r="AJ28">
+        <v>82</v>
+      </c>
+      <c r="AK28">
+        <v>7</v>
+      </c>
+      <c r="AL28">
+        <v>90</v>
+      </c>
+      <c r="AM28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28" t="s">
-        <v>120</v>
+      <c r="L29" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29">
+        <v>78</v>
+      </c>
+      <c r="O29">
+        <v>35</v>
+      </c>
+      <c r="P29">
+        <v>86</v>
+      </c>
+      <c r="Q29">
+        <v>92</v>
+      </c>
+      <c r="R29">
+        <v>96</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>23</v>
+      </c>
+      <c r="U29">
+        <v>37</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF29">
+        <v>78</v>
+      </c>
+      <c r="AG29">
+        <v>35</v>
+      </c>
+      <c r="AH29">
+        <v>86</v>
+      </c>
+      <c r="AI29">
+        <v>92</v>
+      </c>
+      <c r="AJ29">
+        <v>96</v>
+      </c>
+      <c r="AK29">
+        <v>7</v>
+      </c>
+      <c r="AL29">
+        <v>23</v>
+      </c>
+      <c r="AM29">
+        <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M30" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30">
+        <v>78</v>
+      </c>
+      <c r="O30">
+        <v>88</v>
+      </c>
+      <c r="P30">
+        <v>90</v>
+      </c>
+      <c r="Q30">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>23</v>
+      </c>
+      <c r="S30">
+        <v>92</v>
+      </c>
+      <c r="T30" t="s">
+        <v>89</v>
+      </c>
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF30">
+        <v>78</v>
+      </c>
+      <c r="AG30">
+        <v>88</v>
+      </c>
+      <c r="AH30">
+        <v>90</v>
+      </c>
+      <c r="AI30">
+        <v>37</v>
+      </c>
+      <c r="AJ30">
+        <v>23</v>
+      </c>
+      <c r="AK30">
+        <v>92</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1961,34 +4722,120 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31">
+        <v>86</v>
+      </c>
+      <c r="O31">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
+        <v>88</v>
+      </c>
+      <c r="R31">
+        <v>96</v>
+      </c>
+      <c r="S31">
+        <v>92</v>
+      </c>
+      <c r="T31" t="s">
+        <v>89</v>
+      </c>
+      <c r="U31" t="s">
+        <v>89</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF31">
+        <v>86</v>
+      </c>
+      <c r="AG31">
+        <v>37</v>
+      </c>
+      <c r="AH31">
+        <v>23</v>
+      </c>
+      <c r="AI31">
+        <v>88</v>
+      </c>
+      <c r="AJ31">
+        <v>96</v>
+      </c>
+      <c r="AK31">
+        <v>92</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1999,148 +4846,492 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32">
+        <v>86</v>
+      </c>
+      <c r="O32">
+        <v>92</v>
+      </c>
+      <c r="P32">
+        <v>82</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" t="s">
+        <v>89</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF32">
+        <v>86</v>
+      </c>
+      <c r="AG32">
+        <v>92</v>
+      </c>
+      <c r="AH32">
+        <v>82</v>
+      </c>
+      <c r="AI32">
+        <v>7</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" t="s">
+        <v>138</v>
+      </c>
+      <c r="N33">
+        <v>86</v>
+      </c>
+      <c r="O33">
+        <v>35</v>
+      </c>
+      <c r="P33">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33" t="s">
-        <v>123</v>
-      </c>
-      <c r="L33" t="s">
-        <v>123</v>
+      <c r="Q33">
+        <v>92</v>
+      </c>
+      <c r="R33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33" t="s">
+        <v>89</v>
+      </c>
+      <c r="T33" t="s">
+        <v>89</v>
+      </c>
+      <c r="U33" t="s">
+        <v>89</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF33">
+        <v>86</v>
+      </c>
+      <c r="AG33">
+        <v>35</v>
+      </c>
+      <c r="AH33">
+        <v>18</v>
+      </c>
+      <c r="AI33">
+        <v>92</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M34" t="s">
+        <v>139</v>
+      </c>
+      <c r="N34">
+        <v>68</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>89</v>
+      </c>
+      <c r="R34" t="s">
+        <v>89</v>
+      </c>
+      <c r="S34" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" t="s">
+        <v>89</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF34">
+        <v>68</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M35" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35">
+        <v>68</v>
+      </c>
+      <c r="O35">
+        <v>92</v>
+      </c>
+      <c r="P35">
+        <v>82</v>
+      </c>
+      <c r="Q35">
+        <v>88</v>
+      </c>
+      <c r="R35">
+        <v>78</v>
+      </c>
+      <c r="S35">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" t="s">
+        <v>89</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF35">
+        <v>68</v>
+      </c>
+      <c r="AG35">
+        <v>92</v>
+      </c>
+      <c r="AH35">
+        <v>82</v>
+      </c>
+      <c r="AI35">
+        <v>88</v>
+      </c>
+      <c r="AJ35">
+        <v>78</v>
+      </c>
+      <c r="AK35">
+        <v>37</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2151,34 +5342,120 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>129</v>
+        <v>198</v>
+      </c>
+      <c r="M36" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36">
+        <v>68</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>23</v>
+      </c>
+      <c r="Q36">
+        <v>92</v>
+      </c>
+      <c r="R36">
+        <v>82</v>
+      </c>
+      <c r="S36">
+        <v>88</v>
+      </c>
+      <c r="T36">
+        <v>96</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF36">
+        <v>68</v>
+      </c>
+      <c r="AG36">
+        <v>35</v>
+      </c>
+      <c r="AH36">
+        <v>23</v>
+      </c>
+      <c r="AI36">
+        <v>92</v>
+      </c>
+      <c r="AJ36">
+        <v>82</v>
+      </c>
+      <c r="AK36">
+        <v>88</v>
+      </c>
+      <c r="AL36">
+        <v>96</v>
+      </c>
+      <c r="AM36">
+        <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2189,148 +5466,492 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37">
+        <v>68</v>
+      </c>
+      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>82</v>
+      </c>
+      <c r="Q37">
+        <v>92</v>
+      </c>
+      <c r="R37" t="s">
+        <v>89</v>
+      </c>
+      <c r="S37" t="s">
+        <v>89</v>
+      </c>
+      <c r="T37" t="s">
+        <v>89</v>
+      </c>
+      <c r="U37" t="s">
+        <v>89</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF37">
+        <v>68</v>
+      </c>
+      <c r="AG37">
+        <v>35</v>
+      </c>
+      <c r="AH37">
+        <v>82</v>
+      </c>
+      <c r="AI37">
+        <v>92</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M38" t="s">
+        <v>143</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>89</v>
+      </c>
+      <c r="R38" t="s">
+        <v>89</v>
+      </c>
+      <c r="S38" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" t="s">
+        <v>89</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M39" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>89</v>
+      </c>
+      <c r="R39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S39" t="s">
+        <v>89</v>
+      </c>
+      <c r="T39" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" t="s">
+        <v>89</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD39" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>7</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M40" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+      <c r="P40" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>89</v>
+      </c>
+      <c r="R40" t="s">
+        <v>89</v>
+      </c>
+      <c r="S40" t="s">
+        <v>89</v>
+      </c>
+      <c r="T40" t="s">
+        <v>89</v>
+      </c>
+      <c r="U40" t="s">
+        <v>89</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>22</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2341,186 +5962,616 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M41" t="s">
+        <v>146</v>
+      </c>
+      <c r="N41">
+        <v>68</v>
+      </c>
+      <c r="O41">
+        <v>88</v>
+      </c>
+      <c r="P41">
+        <v>96</v>
+      </c>
+      <c r="Q41">
+        <v>35</v>
+      </c>
+      <c r="R41">
+        <v>82</v>
+      </c>
+      <c r="S41">
+        <v>37</v>
+      </c>
+      <c r="T41" t="s">
+        <v>89</v>
+      </c>
+      <c r="U41" t="s">
+        <v>89</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF41">
+        <v>68</v>
+      </c>
+      <c r="AG41">
+        <v>88</v>
+      </c>
+      <c r="AH41">
+        <v>96</v>
+      </c>
+      <c r="AI41">
+        <v>35</v>
+      </c>
+      <c r="AJ41">
+        <v>82</v>
+      </c>
+      <c r="AK41">
+        <v>37</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42">
+        <v>68</v>
+      </c>
+      <c r="O42">
+        <v>88</v>
+      </c>
+      <c r="P42">
+        <v>86</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
+        <v>89</v>
+      </c>
+      <c r="S42" t="s">
+        <v>89</v>
+      </c>
+      <c r="T42" t="s">
+        <v>89</v>
+      </c>
+      <c r="U42" t="s">
+        <v>89</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF42">
+        <v>68</v>
+      </c>
+      <c r="AG42">
+        <v>88</v>
+      </c>
+      <c r="AH42">
+        <v>86</v>
+      </c>
+      <c r="AI42">
+        <v>7</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" t="s">
+        <v>195</v>
+      </c>
+      <c r="M43" t="s">
+        <v>148</v>
+      </c>
+      <c r="N43">
+        <v>82</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>23</v>
+      </c>
+      <c r="Q43">
+        <v>92</v>
+      </c>
+      <c r="R43">
+        <v>90</v>
+      </c>
+      <c r="S43">
+        <v>37</v>
+      </c>
+      <c r="T43">
+        <v>78</v>
+      </c>
+      <c r="U43">
+        <v>35</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF43">
+        <v>82</v>
+      </c>
+      <c r="AG43">
+        <v>7</v>
+      </c>
+      <c r="AH43">
+        <v>23</v>
+      </c>
+      <c r="AI43">
+        <v>92</v>
+      </c>
+      <c r="AJ43">
+        <v>90</v>
+      </c>
+      <c r="AK43">
+        <v>37</v>
+      </c>
+      <c r="AL43">
+        <v>78</v>
+      </c>
+      <c r="AM43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" t="s">
         <v>149</v>
       </c>
-      <c r="E43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" t="s">
-        <v>118</v>
+      <c r="N44">
+        <v>82</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>89</v>
+      </c>
+      <c r="R44" t="s">
+        <v>89</v>
+      </c>
+      <c r="S44" t="s">
+        <v>89</v>
+      </c>
+      <c r="T44" t="s">
+        <v>89</v>
+      </c>
+      <c r="U44" t="s">
+        <v>89</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF44">
+        <v>82</v>
+      </c>
+      <c r="AG44">
+        <v>6</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M45" t="s">
+        <v>150</v>
+      </c>
+      <c r="N45">
+        <v>82</v>
+      </c>
+      <c r="O45">
+        <v>92</v>
+      </c>
+      <c r="P45">
+        <v>23</v>
+      </c>
+      <c r="Q45">
+        <v>35</v>
+      </c>
+      <c r="R45">
+        <v>78</v>
+      </c>
+      <c r="S45">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s">
+        <v>89</v>
+      </c>
+      <c r="U45" t="s">
+        <v>89</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD45" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF45">
+        <v>82</v>
+      </c>
+      <c r="AG45">
+        <v>92</v>
+      </c>
+      <c r="AH45">
+        <v>23</v>
+      </c>
+      <c r="AI45">
+        <v>35</v>
+      </c>
+      <c r="AJ45">
+        <v>78</v>
+      </c>
+      <c r="AK45">
+        <v>37</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2531,31 +6582,117 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" t="s">
         <v>88</v>
       </c>
-      <c r="E46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" t="s">
-        <v>119</v>
-      </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="K46" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="M46" t="s">
+        <v>151</v>
+      </c>
+      <c r="N46">
+        <v>82</v>
+      </c>
+      <c r="O46">
+        <v>88</v>
+      </c>
+      <c r="P46">
+        <v>96</v>
+      </c>
+      <c r="Q46">
+        <v>92</v>
+      </c>
+      <c r="R46">
+        <v>86</v>
+      </c>
+      <c r="S46">
+        <v>35</v>
+      </c>
+      <c r="T46" t="s">
+        <v>89</v>
+      </c>
+      <c r="U46" t="s">
+        <v>89</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF46">
+        <v>82</v>
+      </c>
+      <c r="AG46">
+        <v>88</v>
+      </c>
+      <c r="AH46">
+        <v>96</v>
+      </c>
+      <c r="AI46">
+        <v>92</v>
+      </c>
+      <c r="AJ46">
+        <v>86</v>
+      </c>
+      <c r="AK46">
+        <v>35</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2575,27 +6712,27 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marisacasillas/Documents/GitHub/nwryd19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C9AF7-A8C2-EF41-B4DB-6040D33D107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -110,9 +119,6 @@
     <t>dp_a</t>
   </si>
   <si>
-    <t>ṭp̃æ</t>
-  </si>
-  <si>
     <t>dp</t>
   </si>
   <si>
@@ -182,9 +188,6 @@
     <t>gh_aa</t>
   </si>
   <si>
-    <t>ɣ̃ɑː</t>
-  </si>
-  <si>
     <t>gh</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
     <t>kp_aa</t>
   </si>
   <si>
-    <t>kp̃ɑː</t>
-  </si>
-  <si>
     <t>kp</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
     <t>lv_e</t>
   </si>
   <si>
-    <t>lβʲ̃ə</t>
-  </si>
-  <si>
     <t>lv</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>t_ee</t>
   </si>
   <si>
-    <t>t̃əː</t>
-  </si>
-  <si>
     <t>:êê</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>tp_a</t>
   </si>
   <si>
-    <t>tp̃æ</t>
-  </si>
-  <si>
     <t>tp</t>
   </si>
   <si>
@@ -489,28 +480,33 @@
   </si>
   <si>
     <t>[43]</t>
+  </si>
+  <si>
+    <t>ṭpæ̃</t>
+  </si>
+  <si>
+    <t>ɣɑ̃ː</t>
+  </si>
+  <si>
+    <t>kpɑ̃ː</t>
+  </si>
+  <si>
+    <t>lβʲə̃</t>
+  </si>
+  <si>
+    <t>tə̃ː</t>
+  </si>
+  <si>
+    <t>tpæ̃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -518,6 +514,18 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -551,34 +559,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,23 +653,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -805,7 +933,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -824,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +1008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,9 +1203,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1094,7 +1228,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1113,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1321,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,9 +1494,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1376,7 +1516,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1395,7 +1535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +1591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,7 +1643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,7 +1669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1581,7 +1721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,1781 +1786,1791 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.8516" style="1" customWidth="1"/>
-    <col min="5" max="11" width="5.17188" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="5.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
+    <row r="2" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
+    <row r="4" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="2">
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s" s="2">
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s" s="2">
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s" s="2">
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s" s="2">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1">
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s" s="4">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s" s="2">
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J22" t="s" s="2">
+      <c r="J22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" ht="15.35" customHeight="1">
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s" s="2">
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I23" t="s" s="2">
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J23" t="s" s="2">
+      <c r="J23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="15.35" customHeight="1">
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s" s="2">
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J24" t="s" s="2">
+      <c r="J24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="15.35" customHeight="1">
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s" s="2">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="J25" t="s" s="2">
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" ht="15.35" customHeight="1">
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s" s="2">
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="H26" t="s" s="2">
+      <c r="G26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="15.35" customHeight="1">
+      <c r="I26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s" s="2">
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="15.35" customHeight="1">
+      <c r="I27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J28" t="s" s="2">
+      <c r="J29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L28" t="s" s="2">
+      <c r="K29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" ht="15.35" customHeight="1">
+    <row r="30" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E30" t="s" s="2">
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G30" t="s" s="2">
+      <c r="F30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J30" t="s" s="2">
+      <c r="J30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" ht="15.35" customHeight="1">
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s" s="2">
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I31" t="s" s="2">
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J31" t="s" s="2">
+      <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="15.35" customHeight="1">
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s" s="2">
+      <c r="H33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="1">
+      <c r="I33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s" s="4">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s" s="2">
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="15.35" customHeight="1">
+      <c r="F34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>3</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E35" t="s" s="2">
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I35" t="s" s="2">
+      <c r="G35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J35" t="s" s="2">
+      <c r="J35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" ht="15.35" customHeight="1">
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s" s="2">
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K36" t="s" s="2">
+      <c r="I36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="L36" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" ht="15.35" customHeight="1">
+    <row r="37" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="E37" t="s" s="2">
+      <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s" s="2">
+      <c r="G37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" ht="15.35" customHeight="1">
+      <c r="I37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" ht="15.35" customHeight="1">
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="15.35" customHeight="1">
+      <c r="B39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E40" t="s" s="2">
+      <c r="B40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" ht="15.35" customHeight="1">
+      <c r="E40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>3</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E41" t="s" s="2">
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s" s="2">
+      <c r="F41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J41" t="s" s="2">
+      <c r="I41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" ht="15.35" customHeight="1">
+      <c r="K41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E42" t="s" s="2">
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s" s="2">
+      <c r="F42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" ht="15.35" customHeight="1">
+      <c r="I42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>4</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" ht="17" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" ht="15.35" customHeight="1">
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>3</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F45" t="s" s="2">
+      <c r="B45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J45" t="s" s="2">
+      <c r="J45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" ht="15.35" customHeight="1">
+      <c r="K45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>3</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s" s="2">
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J46" t="s" s="2">
+      <c r="J46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s" s="2">
+      <c r="K46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3428,91 +3578,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="5" customWidth="1"/>
+    <col min="1" max="6" width="10.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>154</v>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>155</v>
+    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>156</v>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>157</v>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>158</v>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
+    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
+    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
+    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3521,7 +3671,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
